--- a/Parts-List/ImageAutofocus-Parts.xlsx
+++ b/Parts-List/ImageAutofocus-Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C662CE-6706-4C0A-A575-51DC24857EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D1A71E-D823-49BB-9BD5-5C67D2FF8362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5D1DFB5-5229-4F81-A1E8-DF46385ECC89}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
-    <t>microscope-pathA-imageAutofocus</t>
-  </si>
-  <si>
     <t>Part name</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>3D printed</t>
+  </si>
+  <si>
+    <t>Image Autofocus (Also in Main Body)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,43 +524,43 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -573,18 +573,18 @@
         <v>1013</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -599,13 +599,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -676,18 +676,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
       <c r="D11">
         <v>1</v>

--- a/Parts-List/ImageAutofocus-Parts.xlsx
+++ b/Parts-List/ImageAutofocus-Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D1A71E-D823-49BB-9BD5-5C67D2FF8362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B337811A-D827-459B-87CB-38D3006534DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5D1DFB5-5229-4F81-A1E8-DF46385ECC89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F738CF5C-E157-4851-BB00-B4ECAEF34ECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Image Autofocus" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+  <si>
+    <t>Image Autofocus (Also in Main Body)</t>
+  </si>
   <si>
     <t>Part name</t>
   </si>
@@ -66,9 +69,6 @@
     <t>PointGrey</t>
   </si>
   <si>
-    <t>BFS-U3-51S5M-C penultimate letter is M for mono or C for colour</t>
-  </si>
-  <si>
     <t>Coarse ±1 mm XY Slip Plate Positioner</t>
   </si>
   <si>
@@ -78,10 +78,10 @@
     <t>Thorlabs</t>
   </si>
   <si>
-    <t>f = 100.0 mm, Ø1" Achromatic Doublet, ARC: 400 - 1100 nm</t>
-  </si>
-  <si>
-    <t>AC254-100-AB</t>
+    <t>Best Form Lens, Ø1", f = 100 mm, ARC: 650-1050 nm</t>
+  </si>
+  <si>
+    <t>LBF254-100-B</t>
   </si>
   <si>
     <t>SM1 (1.035"-40) Coupler</t>
@@ -99,10 +99,7 @@
     <t>SM1-Threaded 30 mm Cage Plate</t>
   </si>
   <si>
-    <t>CP02/M</t>
-  </si>
-  <si>
-    <t>Marked as Obsolete</t>
+    <t>CP33/M</t>
   </si>
   <si>
     <t>Cage Assembly Rod, 3" Long</t>
@@ -126,7 +123,7 @@
     <t>3D printed</t>
   </si>
   <si>
-    <t>Image Autofocus (Also in Main Body)</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +164,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,17 +196,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,60 +521,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8303487A-CAC8-493C-8509-BB529096878D}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A03FA8A-23E4-480F-A431-801B77E29A7D}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="79.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -572,11 +586,9 @@
         <f t="shared" ref="F3:F11" si="0">D3*E3</f>
         <v>1013</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -597,11 +609,11 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
@@ -611,11 +623,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>77.25</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42.81</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>42.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -636,7 +651,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -657,7 +672,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -670,21 +685,21 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>12.67</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
+        <v>12.67</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -700,12 +715,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -721,23 +736,34 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2">
+        <f>SUM(F3:F11)</f>
+        <v>1180.5300000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Parts-List/ImageAutofocus-Parts.xlsx
+++ b/Parts-List/ImageAutofocus-Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\Parts-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B337811A-D827-459B-87CB-38D3006534DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8F68DE-61B2-4DDF-8D0A-1FD54A2D403E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F738CF5C-E157-4851-BB00-B4ECAEF34ECF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F738CF5C-E157-4851-BB00-B4ECAEF34ECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Image Autofocus" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>BFS-U3-51S5M-C</t>
   </si>
   <si>
-    <t>PointGrey</t>
-  </si>
-  <si>
     <t>Coarse ±1 mm XY Slip Plate Positioner</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>FLIR</t>
   </si>
 </sst>
 </file>
@@ -525,25 +525,25 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -574,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -588,15 +588,15 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -609,15 +609,15 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -630,15 +630,15 @@
         <v>42.81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -651,15 +651,15 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -672,15 +672,15 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -694,15 +694,15 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -715,15 +715,15 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -736,15 +736,15 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -757,9 +757,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2">
         <f>SUM(F3:F11)</f>
